--- a/REVER_DailyTracker_20201015.xlsx
+++ b/REVER_DailyTracker_20201015.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monisha\Desktop\Daily_Tracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\October\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4BCEF29-0C0B-4687-8C71-75C8D55474EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB4F8CA-A7F8-44CA-ABB3-225D0A080000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="1392" windowWidth="17928" windowHeight="10860" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2076" windowWidth="23040" windowHeight="10884" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="58">
   <si>
     <t>Task</t>
   </si>
@@ -203,146 +203,13 @@
     <t>2. Correction work supported to Daily task of schedule_report for record count, and upload issue</t>
   </si>
   <si>
-    <t>Sanity testing on B2C app, QMVAR site, GSS site and Hayaai site &amp; Regression testing on B2C app and Hayaai site</t>
-  </si>
-  <si>
-    <t>Sanity testing on B2C app, QMVAR site, GSS site and Hayaai site, Retesting on B2B app &amp; Regression testing on B2C app and Hayaai site</t>
-  </si>
-  <si>
-    <t>Sanity testing on B2C app, QMVAR site, GSS site and Hayaai site, Retesting &amp; Regression testing on B2C app and Hayaai site</t>
-  </si>
-  <si>
-    <t>Sanity testing on B2C app, QMVAR site, GSS site and Hayaai site. Regression testing on B2C app and Hayaai site</t>
-  </si>
-  <si>
-    <t>Application- Login page and Front end  sample Layout design. Sample completed</t>
-  </si>
-  <si>
-    <t>Application- Front end  sample 2nd Layout design. Sample completed</t>
-  </si>
-  <si>
-    <t>QMVAR , Hayaai</t>
-  </si>
-  <si>
-    <t>Application- login design and Hayaai Flyer design</t>
-  </si>
-  <si>
-    <t>Hayaai</t>
-  </si>
-  <si>
-    <t>Two sample Flyer design</t>
-  </si>
-  <si>
-    <t>1) Flyer design completed                                                                                       2) ID card created                                                                            3) Name card created</t>
-  </si>
-  <si>
-    <t>Analysis - File Upload - Design completed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hayaai </t>
-  </si>
-  <si>
-    <t>Website Translation replaced in php file</t>
-  </si>
-  <si>
-    <t>Hayaai ,QMVAR</t>
-  </si>
-  <si>
-    <t>1) Contact Card 2 samples designed                                      2) QMVAR - 2pages design completed</t>
-  </si>
-  <si>
-    <t>QMVAR-RPA</t>
-  </si>
-  <si>
-    <t>InvoiceUpdate IW/OW error correction</t>
-  </si>
-  <si>
-    <t>HAYAAI-B2B</t>
-  </si>
-  <si>
-    <t>New API for inserting job sheet details for Pickup</t>
-  </si>
-  <si>
-    <t>wip</t>
-  </si>
-  <si>
-    <t>Correction Job Details API to get Pickup Ack information</t>
-  </si>
-  <si>
-    <t>HAYAAI-B2C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In /instantfix/create and instantfix/update:
-Have added  "warranty_type":"OUT" ,so please pass this argument to this APIs,
-Also in Service request have updated job_id also now status would Requested instead of Job_in_progress,also Warranty_type is stored in RST_JOB
-Also in updateimei-&gt; API whatever parameters are passed it is stored in warranty information,the one as same as in add devices
-</t>
-  </si>
-  <si>
-    <t>Leave</t>
-  </si>
-  <si>
-    <t>Corrected Job details API and created new API for JobSheet.Also Created new API for technician reaching customer Place</t>
-  </si>
-  <si>
-    <t>13/10/2020</t>
-  </si>
-  <si>
-    <t>Worked on to overcome the security certificate confirmation through Windows registry Key</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Selenium log file, SONY SID, QMVAR Setup File Create</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> best_search_all8, best_report_all8, SID Sony </t>
-  </si>
-  <si>
-    <t>Sony SID Issue File Checking</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Selenium log file, QMVAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Selenium log file, QMVAR Setup File Create, QMVAR CSS </t>
-  </si>
-  <si>
-    <t>QMVAR CSS Progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Selenium log file, MrMax import File Check, QMVAR CSS </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Selenium log file, EMP_RegLogin</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Selenium log file, Employee RegLogin Application</t>
-  </si>
-  <si>
-    <t>Salary tab Page (Modification) Add Column</t>
-  </si>
-  <si>
-    <t>Employee RegLogin Application All Pages design Changes(Personal Info, Education &amp; experience , Bank Details Completed) tabs Completed</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Selenium log file, Sony SID</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Selenium log file, SONY SID (export import checking)</t>
-  </si>
-  <si>
-    <t>Sony Daily RepairSetNp, LogFile Selenium</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Selenium log file, Sony SID, QMVAR Recovery(CSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Selenium log file, CSS QMVAR (Recovery Menu), Sony File Export</t>
-  </si>
-  <si>
-    <t>Sony Export,LogFile Selenium</t>
-  </si>
-  <si>
-    <t>1) Acknowledgement screen designed                                      2) QMVAR - Activity Report page design completed</t>
+    <t>1. Correction work supported to Sony task of scheduling report for file movement to backup folder and record count issue are fixed for the daily and monthly tasks</t>
+  </si>
+  <si>
+    <t>RLOGIC</t>
+  </si>
+  <si>
+    <t>A set up has been established and GL,PL and RPA management files are copied(supported for installation and testing) and tested for the purchase summary from GSPN at RLOGIC system</t>
   </si>
 </sst>
 </file>
@@ -352,7 +219,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,12 +267,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -511,7 +372,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -625,28 +486,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -962,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1392,6 +1231,46 @@
       </c>
       <c r="F38" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="28.8">
+      <c r="A40">
+        <v>15</v>
+      </c>
+      <c r="B40" s="52">
+        <v>44119</v>
+      </c>
+      <c r="C40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" s="28">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="28.8">
+      <c r="A41">
+        <v>16</v>
+      </c>
+      <c r="B41" s="52">
+        <v>44119</v>
+      </c>
+      <c r="C41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41" s="28">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1516,7 +1395,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1897,8 +1776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1936,158 +1815,39 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>43840</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="33">
-        <v>43961</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="52">
-        <v>43992</v>
-      </c>
-      <c r="C4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="28">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="52">
-        <v>44022</v>
-      </c>
-      <c r="C5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="28">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="216">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="52">
-        <v>44053</v>
-      </c>
-      <c r="C6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="28">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="52">
-        <v>44084</v>
-      </c>
-      <c r="D7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="43.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="52">
-        <v>44175</v>
-      </c>
-      <c r="C8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" s="28">
-        <v>0.8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="28.8">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="60" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" s="28">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>5</v>
-      </c>
-    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
     <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
@@ -2127,8 +1887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2186,270 +1946,20 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="26">
-        <v>2</v>
-      </c>
-      <c r="B3" s="54">
-        <v>44106</v>
-      </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="42"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="26">
-        <v>3</v>
-      </c>
-      <c r="B4" s="54">
-        <v>44107</v>
-      </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="42"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="26">
-        <v>4</v>
-      </c>
-      <c r="B5" s="54">
-        <v>44108</v>
-      </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="42"/>
-    </row>
-    <row r="6" spans="1:7" ht="28.8">
-      <c r="A6" s="20">
-        <v>5</v>
-      </c>
-      <c r="B6" s="21">
-        <v>44109</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="22">
-        <v>1</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" ht="28.8">
-      <c r="A7" s="20">
-        <v>6</v>
-      </c>
-      <c r="B7" s="21">
-        <v>44110</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="22">
-        <v>1</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="20">
-        <v>7</v>
-      </c>
-      <c r="B8" s="21">
-        <v>44111</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="22">
-        <v>0.4</v>
-      </c>
-      <c r="F8" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="20">
-        <v>8</v>
-      </c>
-      <c r="B9" s="21">
-        <v>44112</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="22">
-        <v>0.8</v>
-      </c>
-      <c r="F9" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" ht="43.2">
-      <c r="A10" s="20">
-        <v>9</v>
-      </c>
-      <c r="B10" s="21">
-        <v>44113</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="22">
-        <v>1</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="26">
-        <v>10</v>
-      </c>
-      <c r="B11" s="54">
-        <v>44114</v>
-      </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="26">
-        <v>11</v>
-      </c>
-      <c r="B12" s="54">
-        <v>44115</v>
-      </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="20">
-        <v>12</v>
-      </c>
-      <c r="B13" s="21">
-        <v>44116</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="22">
-        <v>1</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="20">
-        <v>13</v>
-      </c>
-      <c r="B14" s="21">
-        <v>44117</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="22">
-        <v>1</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" ht="28.8">
-      <c r="A15" s="20">
-        <v>14</v>
-      </c>
-      <c r="B15" s="21">
-        <v>44118</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="22">
-        <v>1</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" ht="28.8">
-      <c r="A16" s="20">
-        <v>15</v>
-      </c>
-      <c r="B16" s="21">
-        <v>44119</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" s="22">
-        <v>1</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="1"/>
-    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1"/>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
     <row r="19" spans="2:3">
       <c r="C19" s="12" t="s">
         <v>1</v>
@@ -2601,14 +2111,14 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
@@ -2651,7 +2161,7 @@
       <c r="D2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="32">
+      <c r="E2" s="28">
         <v>1</v>
       </c>
       <c r="F2" s="10" t="s">
@@ -2661,167 +2171,31 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="21">
-        <v>44109</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" s="32">
-        <v>1</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="28.8">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="21">
-        <v>44110</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" s="32">
-        <v>1</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="28.8">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="21">
-        <v>44111</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" s="32">
-        <v>1</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="21">
-        <v>44112</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6" s="32">
-        <v>1</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="43.2">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="21">
-        <v>44113</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" s="32">
-        <v>1</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="21">
-        <v>44116</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="32">
-        <v>1</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="28.8">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="21">
-        <v>44117</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" s="32">
-        <v>1</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>99</v>
-      </c>
-    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
     <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
@@ -2862,7 +2236,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3173,8 +2547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D306E27-97EE-45E4-BF06-4F0178DE4E63}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3290,216 +2664,30 @@
       <c r="D6" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="7">
-        <v>1</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" ht="43.2">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="31">
-        <v>44110</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" ht="43.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="31">
-        <v>44111</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="7">
-        <v>1</v>
-      </c>
-      <c r="F8" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" ht="43.2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="31">
-        <v>44112</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="7">
-        <v>1</v>
-      </c>
-      <c r="F9" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" ht="43.2">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="31">
-        <v>44113</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="7">
-        <v>1</v>
-      </c>
-      <c r="F10" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="31">
-        <v>44114</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="31">
-        <v>44115</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" ht="43.2">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="31">
-        <v>44116</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="7">
-        <v>1</v>
-      </c>
-      <c r="F13" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" ht="43.2">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="31">
-        <v>44117</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="7">
-        <v>1</v>
-      </c>
-      <c r="F14" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" ht="43.2">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="31">
-        <v>44118</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="7">
-        <v>1</v>
-      </c>
-      <c r="F15" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" ht="43.2">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="31">
-        <v>44119</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1</v>
-      </c>
-      <c r="F16" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="1"/>
-    </row>
+      <c r="E6" s="39">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="40"/>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="20" spans="2:3" s="4" customFormat="1"/>
+    <row r="21" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3" s="4" customFormat="1"/>
     <row r="25" spans="2:3">
       <c r="C25" s="12" t="s">
         <v>1</v>

--- a/REVER_DailyTracker_20201015.xlsx
+++ b/REVER_DailyTracker_20201015.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\October\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monisha\Desktop\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB4F8CA-A7F8-44CA-ABB3-225D0A080000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4BCEF29-0C0B-4687-8C71-75C8D55474EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2076" windowWidth="23040" windowHeight="10884" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2520" yWindow="1392" windowWidth="17928" windowHeight="10860" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="101">
   <si>
     <t>Task</t>
   </si>
@@ -203,13 +203,146 @@
     <t>2. Correction work supported to Daily task of schedule_report for record count, and upload issue</t>
   </si>
   <si>
-    <t>1. Correction work supported to Sony task of scheduling report for file movement to backup folder and record count issue are fixed for the daily and monthly tasks</t>
-  </si>
-  <si>
-    <t>RLOGIC</t>
-  </si>
-  <si>
-    <t>A set up has been established and GL,PL and RPA management files are copied(supported for installation and testing) and tested for the purchase summary from GSPN at RLOGIC system</t>
+    <t>Sanity testing on B2C app, QMVAR site, GSS site and Hayaai site &amp; Regression testing on B2C app and Hayaai site</t>
+  </si>
+  <si>
+    <t>Sanity testing on B2C app, QMVAR site, GSS site and Hayaai site, Retesting on B2B app &amp; Regression testing on B2C app and Hayaai site</t>
+  </si>
+  <si>
+    <t>Sanity testing on B2C app, QMVAR site, GSS site and Hayaai site, Retesting &amp; Regression testing on B2C app and Hayaai site</t>
+  </si>
+  <si>
+    <t>Sanity testing on B2C app, QMVAR site, GSS site and Hayaai site. Regression testing on B2C app and Hayaai site</t>
+  </si>
+  <si>
+    <t>Application- Login page and Front end  sample Layout design. Sample completed</t>
+  </si>
+  <si>
+    <t>Application- Front end  sample 2nd Layout design. Sample completed</t>
+  </si>
+  <si>
+    <t>QMVAR , Hayaai</t>
+  </si>
+  <si>
+    <t>Application- login design and Hayaai Flyer design</t>
+  </si>
+  <si>
+    <t>Hayaai</t>
+  </si>
+  <si>
+    <t>Two sample Flyer design</t>
+  </si>
+  <si>
+    <t>1) Flyer design completed                                                                                       2) ID card created                                                                            3) Name card created</t>
+  </si>
+  <si>
+    <t>Analysis - File Upload - Design completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hayaai </t>
+  </si>
+  <si>
+    <t>Website Translation replaced in php file</t>
+  </si>
+  <si>
+    <t>Hayaai ,QMVAR</t>
+  </si>
+  <si>
+    <t>1) Contact Card 2 samples designed                                      2) QMVAR - 2pages design completed</t>
+  </si>
+  <si>
+    <t>QMVAR-RPA</t>
+  </si>
+  <si>
+    <t>InvoiceUpdate IW/OW error correction</t>
+  </si>
+  <si>
+    <t>HAYAAI-B2B</t>
+  </si>
+  <si>
+    <t>New API for inserting job sheet details for Pickup</t>
+  </si>
+  <si>
+    <t>wip</t>
+  </si>
+  <si>
+    <t>Correction Job Details API to get Pickup Ack information</t>
+  </si>
+  <si>
+    <t>HAYAAI-B2C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In /instantfix/create and instantfix/update:
+Have added  "warranty_type":"OUT" ,so please pass this argument to this APIs,
+Also in Service request have updated job_id also now status would Requested instead of Job_in_progress,also Warranty_type is stored in RST_JOB
+Also in updateimei-&gt; API whatever parameters are passed it is stored in warranty information,the one as same as in add devices
+</t>
+  </si>
+  <si>
+    <t>Leave</t>
+  </si>
+  <si>
+    <t>Corrected Job details API and created new API for JobSheet.Also Created new API for technician reaching customer Place</t>
+  </si>
+  <si>
+    <t>13/10/2020</t>
+  </si>
+  <si>
+    <t>Worked on to overcome the security certificate confirmation through Windows registry Key</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selenium log file, SONY SID, QMVAR Setup File Create</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> best_search_all8, best_report_all8, SID Sony </t>
+  </si>
+  <si>
+    <t>Sony SID Issue File Checking</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selenium log file, QMVAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selenium log file, QMVAR Setup File Create, QMVAR CSS </t>
+  </si>
+  <si>
+    <t>QMVAR CSS Progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selenium log file, MrMax import File Check, QMVAR CSS </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selenium log file, EMP_RegLogin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selenium log file, Employee RegLogin Application</t>
+  </si>
+  <si>
+    <t>Salary tab Page (Modification) Add Column</t>
+  </si>
+  <si>
+    <t>Employee RegLogin Application All Pages design Changes(Personal Info, Education &amp; experience , Bank Details Completed) tabs Completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selenium log file, Sony SID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selenium log file, SONY SID (export import checking)</t>
+  </si>
+  <si>
+    <t>Sony Daily RepairSetNp, LogFile Selenium</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selenium log file, Sony SID, QMVAR Recovery(CSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selenium log file, CSS QMVAR (Recovery Menu), Sony File Export</t>
+  </si>
+  <si>
+    <t>Sony Export,LogFile Selenium</t>
+  </si>
+  <si>
+    <t>1) Acknowledgement screen designed                                      2) QMVAR - Activity Report page design completed</t>
   </si>
 </sst>
 </file>
@@ -219,7 +352,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,6 +400,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -372,7 +511,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -486,6 +625,28 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -801,10 +962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1231,46 +1392,6 @@
       </c>
       <c r="F38" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="28.8">
-      <c r="A40">
-        <v>15</v>
-      </c>
-      <c r="B40" s="52">
-        <v>44119</v>
-      </c>
-      <c r="C40" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="E40" s="28">
-        <v>1</v>
-      </c>
-      <c r="F40" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="28.8">
-      <c r="A41">
-        <v>16</v>
-      </c>
-      <c r="B41" s="52">
-        <v>44119</v>
-      </c>
-      <c r="C41" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="E41" s="28">
-        <v>1</v>
-      </c>
-      <c r="F41" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1395,7 +1516,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1776,8 +1897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1815,39 +1936,158 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43840</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33">
+        <v>43961</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="52">
+        <v>43992</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="28">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="52">
+        <v>44022</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="28">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="216">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="52">
+        <v>44053</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="28">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="52">
+        <v>44084</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="43.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="52">
+        <v>44175</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="28">
+        <v>0.8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="28.8">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="28">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
@@ -1887,8 +2127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1946,20 +2186,270 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1"/>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="3" spans="1:7">
+      <c r="A3" s="26">
+        <v>2</v>
+      </c>
+      <c r="B3" s="54">
+        <v>44106</v>
+      </c>
+      <c r="C3" s="55"/>
+      <c r="D3" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="41"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="42"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="26">
+        <v>3</v>
+      </c>
+      <c r="B4" s="54">
+        <v>44107</v>
+      </c>
+      <c r="C4" s="55"/>
+      <c r="D4" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="41"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="42"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="26">
+        <v>4</v>
+      </c>
+      <c r="B5" s="54">
+        <v>44108</v>
+      </c>
+      <c r="C5" s="55"/>
+      <c r="D5" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="41"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="42"/>
+    </row>
+    <row r="6" spans="1:7" ht="28.8">
+      <c r="A6" s="20">
+        <v>5</v>
+      </c>
+      <c r="B6" s="21">
+        <v>44109</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="22">
+        <v>1</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="28.8">
+      <c r="A7" s="20">
+        <v>6</v>
+      </c>
+      <c r="B7" s="21">
+        <v>44110</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="22">
+        <v>1</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="20">
+        <v>7</v>
+      </c>
+      <c r="B8" s="21">
+        <v>44111</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="20">
+        <v>8</v>
+      </c>
+      <c r="B9" s="21">
+        <v>44112</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="F9" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="43.2">
+      <c r="A10" s="20">
+        <v>9</v>
+      </c>
+      <c r="B10" s="21">
+        <v>44113</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="22">
+        <v>1</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="26">
+        <v>10</v>
+      </c>
+      <c r="B11" s="54">
+        <v>44114</v>
+      </c>
+      <c r="C11" s="55"/>
+      <c r="D11" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="26">
+        <v>11</v>
+      </c>
+      <c r="B12" s="54">
+        <v>44115</v>
+      </c>
+      <c r="C12" s="55"/>
+      <c r="D12" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="20">
+        <v>12</v>
+      </c>
+      <c r="B13" s="21">
+        <v>44116</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="22">
+        <v>1</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="20">
+        <v>13</v>
+      </c>
+      <c r="B14" s="21">
+        <v>44117</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="22">
+        <v>1</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="28.8">
+      <c r="A15" s="20">
+        <v>14</v>
+      </c>
+      <c r="B15" s="21">
+        <v>44118</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="22">
+        <v>1</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" ht="28.8">
+      <c r="A16" s="20">
+        <v>15</v>
+      </c>
+      <c r="B16" s="21">
+        <v>44119</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="22">
+        <v>1</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
     <row r="19" spans="2:3">
       <c r="C19" s="12" t="s">
         <v>1</v>
@@ -2111,14 +2601,14 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
@@ -2161,7 +2651,7 @@
       <c r="D2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="28">
+      <c r="E2" s="32">
         <v>1</v>
       </c>
       <c r="F2" s="10" t="s">
@@ -2171,31 +2661,167 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="3" spans="1:7" ht="28.8">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21">
+        <v>44109</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="32">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="28.8">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="21">
+        <v>44110</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="32">
+        <v>1</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="28.8">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="21">
+        <v>44111</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="32">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="21">
+        <v>44112</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="32">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="43.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="21">
+        <v>44113</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="32">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="21">
+        <v>44116</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="32">
+        <v>1</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="28.8">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="21">
+        <v>44117</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="32">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>99</v>
+      </c>
+    </row>
     <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
@@ -2236,7 +2862,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2547,8 +3173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D306E27-97EE-45E4-BF06-4F0178DE4E63}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD6"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2664,30 +3290,216 @@
       <c r="D6" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="39">
-        <v>1</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="40"/>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="20" spans="2:3" s="4" customFormat="1"/>
-    <row r="21" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3" s="4" customFormat="1"/>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="43.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="31">
+        <v>44110</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="43.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="31">
+        <v>44111</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="43.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="31">
+        <v>44112</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="43.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="31">
+        <v>44113</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="31">
+        <v>44114</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="31">
+        <v>44115</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" ht="43.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="31">
+        <v>44116</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
+      <c r="F13" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" ht="43.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="31">
+        <v>44117</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
+      <c r="F14" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="43.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="31">
+        <v>44118</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" ht="43.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="31">
+        <v>44119</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
+      <c r="F16" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
     <row r="25" spans="2:3">
       <c r="C25" s="12" t="s">
         <v>1</v>

--- a/REVER_DailyTracker_20201015.xlsx
+++ b/REVER_DailyTracker_20201015.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monisha\Desktop\Daily_Tracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nprem\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4BCEF29-0C0B-4687-8C71-75C8D55474EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2C2691-306C-4790-9E4C-8CC0E33D8E84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="1392" windowWidth="17928" windowHeight="10860" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="108">
   <si>
     <t>Task</t>
   </si>
@@ -343,6 +343,27 @@
   </si>
   <si>
     <t>1) Acknowledgement screen designed                                      2) QMVAR - Activity Report page design completed</t>
+  </si>
+  <si>
+    <t>creating Setup file</t>
+  </si>
+  <si>
+    <t>Layout Designing</t>
+  </si>
+  <si>
+    <t>Emplogin</t>
+  </si>
+  <si>
+    <t>Adding assests Detatils</t>
+  </si>
+  <si>
+    <t>Adding assests Detatils and responisble view</t>
+  </si>
+  <si>
+    <t>stored management added in Monthly target</t>
+  </si>
+  <si>
+    <t>adding layout in analysis file upload</t>
   </si>
 </sst>
 </file>
@@ -511,7 +532,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -646,6 +667,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2127,7 +2151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -2861,8 +2885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3007,24 +3031,200 @@
       </c>
       <c r="G7" s="40"/>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="8" spans="1:7" s="4" customFormat="1">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="31">
+        <v>44110</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="31">
+        <v>44111</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="31">
+        <v>44112</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="31">
+        <v>44113</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="31">
+        <v>44114</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="41"/>
+      <c r="F12" s="42"/>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="31">
+        <v>44115</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="41"/>
+      <c r="F13" s="42"/>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="31">
+        <v>44116</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
+      <c r="F14" s="61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="4" customFormat="1">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="31">
+        <v>44117</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="4" customFormat="1">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="31">
+        <v>44118</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
+      <c r="F16" s="61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="4" customFormat="1">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="31">
+        <v>44119</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="4" customFormat="1"/>
+    <row r="19" spans="1:6" s="4" customFormat="1"/>
+    <row r="22" spans="1:6">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="1:6">
       <c r="B23" s="43" t="s">
         <v>3</v>
       </c>
@@ -3032,13 +3232,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="1:6">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:6">
       <c r="B25" s="25" t="s">
         <v>5</v>
       </c>
@@ -3046,7 +3246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:6">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>10</v>

--- a/REVER_DailyTracker_20201015.xlsx
+++ b/REVER_DailyTracker_20201015.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nprem\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2C2691-306C-4790-9E4C-8CC0E33D8E84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30300A29-9A78-4800-9945-032D69A7F1EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="113">
   <si>
     <t>Task</t>
   </si>
@@ -364,6 +364,21 @@
   </si>
   <si>
     <t>adding layout in analysis file upload</t>
+  </si>
+  <si>
+    <t>DRS Count - Saw Discount changes and Issue</t>
+  </si>
+  <si>
+    <t>DRS Count - Saw Discount Summary &amp; Details</t>
+  </si>
+  <si>
+    <t>DRS - Daily Revenue</t>
+  </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
+    <t>Go through Soica Project MDB File Application</t>
   </si>
 </sst>
 </file>
@@ -373,7 +388,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,6 +445,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="8">
@@ -532,7 +553,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -670,6 +691,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -992,15 +1016,15 @@
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="82.6640625" style="51" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="82.7109375" style="51" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1024,7 +1048,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.95" customHeight="1">
+    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.9" customHeight="1">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1097,7 +1121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="28.8">
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="30">
       <c r="A6" s="47">
         <v>4</v>
       </c>
@@ -1199,7 +1223,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="28.8">
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="30">
       <c r="D14" s="50" t="s">
         <v>41</v>
       </c>
@@ -1210,7 +1234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="28.8">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="30">
       <c r="D15" s="50" t="s">
         <v>43</v>
       </c>
@@ -1327,7 +1351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="28.8">
+    <row r="33" spans="1:6" ht="30">
       <c r="A33">
         <v>11</v>
       </c>
@@ -1398,7 +1422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" ht="30">
       <c r="A38">
         <v>14</v>
       </c>
@@ -1432,15 +1456,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1543,15 +1567,15 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1649,19 +1673,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1730,84 +1754,192 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33">
+        <v>44109</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>5</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="33">
+        <v>44110</v>
+      </c>
+      <c r="C5" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>3</v>
+      </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="33">
+        <v>44111</v>
+      </c>
+      <c r="C6" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>3</v>
+      </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="33">
+        <v>44112</v>
+      </c>
+      <c r="C7" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>3</v>
+      </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="33">
+        <v>44113</v>
+      </c>
+      <c r="C8" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>3</v>
+      </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="33">
+        <v>44116</v>
+      </c>
+      <c r="C9" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>3</v>
+      </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="33">
+        <v>44117</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>3</v>
+      </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="33">
+        <v>44118</v>
+      </c>
+      <c r="C11" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>5</v>
+      </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="A12" s="1">
+        <v>15</v>
+      </c>
+      <c r="B12" s="33">
+        <v>44119</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>5</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1">
@@ -1925,15 +2057,15 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2041,7 +2173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="216">
+    <row r="6" spans="1:7" ht="225">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2072,7 +2204,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="43.2">
+    <row r="8" spans="1:7" ht="45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2092,7 +2224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="28.8">
+    <row r="9" spans="1:7" ht="30">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2155,15 +2287,15 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2255,7 +2387,7 @@
       <c r="F5" s="56"/>
       <c r="G5" s="42"/>
     </row>
-    <row r="6" spans="1:7" ht="28.8">
+    <row r="6" spans="1:7" ht="30">
       <c r="A6" s="20">
         <v>5</v>
       </c>
@@ -2276,7 +2408,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="28.8">
+    <row r="7" spans="1:7" ht="30">
       <c r="A7" s="20">
         <v>6</v>
       </c>
@@ -2297,7 +2429,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="30">
       <c r="A8" s="20">
         <v>7</v>
       </c>
@@ -2339,7 +2471,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="43.2">
+    <row r="10" spans="1:7" ht="45">
       <c r="A10" s="20">
         <v>9</v>
       </c>
@@ -2432,7 +2564,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" ht="28.8">
+    <row r="15" spans="1:7" ht="30">
       <c r="A15" s="20">
         <v>14</v>
       </c>
@@ -2453,7 +2585,7 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" ht="28.8">
+    <row r="16" spans="1:7" ht="45">
       <c r="A16" s="20">
         <v>15</v>
       </c>
@@ -2517,15 +2649,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2628,15 +2760,15 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2662,7 +2794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8">
+    <row r="2" spans="1:7" ht="30">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2685,7 +2817,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8">
+    <row r="3" spans="1:7" ht="30">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2708,7 +2840,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.8">
+    <row r="4" spans="1:7" ht="30">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2731,7 +2863,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.8">
+    <row r="5" spans="1:7" ht="30">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2754,7 +2886,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="30">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2777,7 +2909,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="43.2">
+    <row r="7" spans="1:7" ht="45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2800,7 +2932,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="30">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2823,7 +2955,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="28.8">
+    <row r="9" spans="1:7" ht="30">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2885,19 +3017,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1">
@@ -3266,15 +3398,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3377,15 +3509,15 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3411,7 +3543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="43.2">
+    <row r="2" spans="1:7" ht="45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3477,7 +3609,7 @@
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
     </row>
-    <row r="6" spans="1:7" ht="43.2">
+    <row r="6" spans="1:7" ht="45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3498,7 +3630,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="43.2">
+    <row r="7" spans="1:7" ht="45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3519,7 +3651,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="43.2">
+    <row r="8" spans="1:7" ht="45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3540,7 +3672,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="43.2">
+    <row r="9" spans="1:7" ht="45">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3561,7 +3693,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="43.2">
+    <row r="10" spans="1:7" ht="45">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3616,7 +3748,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="43.2">
+    <row r="13" spans="1:7" ht="45">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3637,7 +3769,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" ht="43.2">
+    <row r="14" spans="1:7" ht="45">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3658,7 +3790,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" ht="43.2">
+    <row r="15" spans="1:7" ht="45">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3679,7 +3811,7 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" ht="43.2">
+    <row r="16" spans="1:7" ht="45">
       <c r="A16" s="1">
         <v>15</v>
       </c>

--- a/REVER_DailyTracker_20201015.xlsx
+++ b/REVER_DailyTracker_20201015.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30300A29-9A78-4800-9945-032D69A7F1EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6162221-18C6-4572-82A2-E870C61D384F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="117">
   <si>
     <t>Task</t>
   </si>
@@ -379,6 +379,20 @@
   </si>
   <si>
     <t>Go through Soica Project MDB File Application</t>
+  </si>
+  <si>
+    <t>14/10/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAYAAI-B2B </t>
+  </si>
+  <si>
+    <t>To display JobSheet details in B2C ,Repairs tab,
+First call userissues API,in which you will get eq_stock_id.
+Pass that eq_Stock_id to this new acknowldgesheet API</t>
+  </si>
+  <si>
+    <t>15/10/2020</t>
   </si>
 </sst>
 </file>
@@ -1016,15 +1030,15 @@
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="82.7109375" style="51" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="82.6640625" style="51" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1048,7 +1062,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.9" customHeight="1">
+    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.95" customHeight="1">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1121,7 +1135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="30">
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="A6" s="47">
         <v>4</v>
       </c>
@@ -1223,7 +1237,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="30">
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="D14" s="50" t="s">
         <v>41</v>
       </c>
@@ -1234,7 +1248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="30">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="D15" s="50" t="s">
         <v>43</v>
       </c>
@@ -1351,7 +1365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="30">
+    <row r="33" spans="1:6" ht="28.8">
       <c r="A33">
         <v>11</v>
       </c>
@@ -1422,7 +1436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30">
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>14</v>
       </c>
@@ -1456,15 +1470,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1567,15 +1581,15 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1673,19 +1687,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2053,19 +2067,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2173,7 +2187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="225">
+    <row r="6" spans="1:7" ht="216">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2204,7 +2218,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="45">
+    <row r="8" spans="1:7" ht="43.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2224,7 +2238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30">
+    <row r="9" spans="1:7" ht="28.8">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2242,6 +2256,46 @@
       </c>
       <c r="F9" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="100.8">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="100.8">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="2:3">
@@ -2287,15 +2341,15 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2387,7 +2441,7 @@
       <c r="F5" s="56"/>
       <c r="G5" s="42"/>
     </row>
-    <row r="6" spans="1:7" ht="30">
+    <row r="6" spans="1:7" ht="28.8">
       <c r="A6" s="20">
         <v>5</v>
       </c>
@@ -2408,7 +2462,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="30">
+    <row r="7" spans="1:7" ht="28.8">
       <c r="A7" s="20">
         <v>6</v>
       </c>
@@ -2429,7 +2483,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="30">
+    <row r="8" spans="1:7">
       <c r="A8" s="20">
         <v>7</v>
       </c>
@@ -2471,7 +2525,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="45">
+    <row r="10" spans="1:7" ht="43.2">
       <c r="A10" s="20">
         <v>9</v>
       </c>
@@ -2564,7 +2618,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" ht="30">
+    <row r="15" spans="1:7" ht="28.8">
       <c r="A15" s="20">
         <v>14</v>
       </c>
@@ -2585,7 +2639,7 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" ht="45">
+    <row r="16" spans="1:7" ht="28.8">
       <c r="A16" s="20">
         <v>15</v>
       </c>
@@ -2649,15 +2703,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2760,15 +2814,15 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2794,7 +2848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
+    <row r="2" spans="1:7" ht="28.8">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2817,7 +2871,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30">
+    <row r="3" spans="1:7" ht="28.8">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2840,7 +2894,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30">
+    <row r="4" spans="1:7" ht="28.8">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2863,7 +2917,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30">
+    <row r="5" spans="1:7" ht="28.8">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2886,7 +2940,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2909,7 +2963,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="45">
+    <row r="7" spans="1:7" ht="43.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2932,7 +2986,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2955,7 +3009,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30">
+    <row r="9" spans="1:7" ht="28.8">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3021,15 +3075,15 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1">
@@ -3398,15 +3452,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3509,15 +3563,15 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3543,7 +3597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45">
+    <row r="2" spans="1:7" ht="43.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3609,7 +3663,7 @@
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
     </row>
-    <row r="6" spans="1:7" ht="45">
+    <row r="6" spans="1:7" ht="43.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3630,7 +3684,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="45">
+    <row r="7" spans="1:7" ht="43.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3651,7 +3705,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="45">
+    <row r="8" spans="1:7" ht="43.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3672,7 +3726,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="45">
+    <row r="9" spans="1:7" ht="43.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3693,7 +3747,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="45">
+    <row r="10" spans="1:7" ht="43.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3748,7 +3802,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="45">
+    <row r="13" spans="1:7" ht="43.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3769,7 +3823,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" ht="45">
+    <row r="14" spans="1:7" ht="43.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3790,7 +3844,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" ht="45">
+    <row r="15" spans="1:7" ht="43.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3811,7 +3865,7 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" ht="45">
+    <row r="16" spans="1:7" ht="43.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
